--- a/BADGOTRON/Project Outputs for badgotron/BOM/Bill of Materials-badgotron.xlsx
+++ b/BADGOTRON/Project Outputs for badgotron/BOM/Bill of Materials-badgotron.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="19365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19980"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-badgotron" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="237">
   <si>
     <t>Quantity</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Ref.Fournisseur</t>
   </si>
   <si>
-    <t>C?</t>
+    <t>C5, C7, C8, C9, C10, C11, C12</t>
   </si>
   <si>
     <t>0.1uF</t>
@@ -72,6 +72,9 @@
     <t>2310273</t>
   </si>
   <si>
+    <t>C6, C16, C17, C18, C21, C22, C23</t>
+  </si>
+  <si>
     <t>22uF</t>
   </si>
   <si>
@@ -87,94 +90,103 @@
     <t>1833829</t>
   </si>
   <si>
-    <t>D?</t>
+    <t>R2, R3, R6, R7, R13</t>
+  </si>
+  <si>
+    <t>300k</t>
+  </si>
+  <si>
+    <t>AXIAL-0.4</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>MULTICOMP</t>
+  </si>
+  <si>
+    <t>MCSR08X3003FTL</t>
+  </si>
+  <si>
+    <t>2074433</t>
+  </si>
+  <si>
+    <t>R4, R5, R12, R15, R16</t>
+  </si>
+  <si>
+    <t>100k, 100k, 100ko, 100ko, 100k</t>
+  </si>
+  <si>
+    <t>MCWR06X1003FTL</t>
+  </si>
+  <si>
+    <t>2447226</t>
+  </si>
+  <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
+    <t>18pF</t>
+  </si>
+  <si>
+    <t>02013A180JAT2A</t>
+  </si>
+  <si>
+    <t>1740563</t>
+  </si>
+  <si>
+    <t>C14, C19</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>Cin_Reg_5v, Cin_Reg_3v</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C1210C106K3RACTU</t>
+  </si>
+  <si>
+    <t>1358512</t>
+  </si>
+  <si>
+    <t>C15, C20</t>
+  </si>
+  <si>
+    <t>Cbst_Reg_5v, Cbst_Reg_3.3v</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>CGA2B3X7R1E104K050BB</t>
+  </si>
+  <si>
+    <t>2210820</t>
+  </si>
+  <si>
+    <t>D2, D3</t>
+  </si>
+  <si>
+    <t>MBRS330T3G</t>
+  </si>
+  <si>
+    <t>SMC</t>
   </si>
   <si>
     <t>Schottky</t>
   </si>
   <si>
-    <t>SMC</t>
-  </si>
-  <si>
-    <t>D_Conv_5v</t>
-  </si>
-  <si>
     <t>OnSemiconductor</t>
   </si>
   <si>
-    <t>MBRS330T3G</t>
-  </si>
-  <si>
     <t>1459078</t>
   </si>
   <si>
-    <t>R?</t>
-  </si>
-  <si>
-    <t>100ko</t>
-  </si>
-  <si>
-    <t>AXIAL-0.3</t>
-  </si>
-  <si>
-    <t>R_PGOOD_REG_5v, R_PGOOD_REG_5v, R_PGOOD_REG_5v, R_PGOOD_REG_3.3v, R_PGOOD_REG_5v</t>
-  </si>
-  <si>
-    <t>MCWR06X1003FTL</t>
-  </si>
-  <si>
-    <t>2447226</t>
-  </si>
-  <si>
-    <t>300ko</t>
-  </si>
-  <si>
-    <t>R_PGOOD_REG_5v</t>
-  </si>
-  <si>
-    <t>MCSR08X3003FTL</t>
-  </si>
-  <si>
-    <t>2074433</t>
-  </si>
-  <si>
-    <t>Cbst_Reg_3.3v, Cbst_Reg_5v</t>
-  </si>
-  <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>CGA2B3X7R1E104K050BB</t>
-  </si>
-  <si>
-    <t>2210820</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>Cin_Reg_3v, Cin_Reg_5v</t>
-  </si>
-  <si>
-    <t>KEMET</t>
-  </si>
-  <si>
-    <t>C1210C106K3RACTU</t>
-  </si>
-  <si>
-    <t>1358512</t>
-  </si>
-  <si>
-    <t>18pF</t>
-  </si>
-  <si>
-    <t>02013A180JAT2A</t>
-  </si>
-  <si>
-    <t>1740563</t>
-  </si>
-  <si>
-    <t>L?</t>
+    <t>L1, L2</t>
   </si>
   <si>
     <t>7uH</t>
@@ -183,7 +195,7 @@
     <t>0402-A</t>
   </si>
   <si>
-    <t>L_Reg_3.3v, L_Reg_5v</t>
+    <t>L_Reg_5v, L_Reg_3.3v</t>
   </si>
   <si>
     <t>Coilcraft</t>
@@ -195,7 +207,7 @@
     <t>2288224</t>
   </si>
   <si>
-    <t>Q?</t>
+    <t>Q1, Q2</t>
   </si>
   <si>
     <t>MOSFET-N</t>
@@ -216,15 +228,27 @@
     <t>2760371</t>
   </si>
   <si>
+    <t>Q3, Q4</t>
+  </si>
+  <si>
+    <t>SI2319DS-T1-E3</t>
+  </si>
+  <si>
+    <t>P-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>VISHAY</t>
+  </si>
+  <si>
+    <t>1838990</t>
+  </si>
+  <si>
+    <t>R8, R10</t>
+  </si>
+  <si>
     <t>10K</t>
   </si>
   <si>
-    <t>AXIAL-0.4</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
     <t>TE CONNECTIVITY</t>
   </si>
   <si>
@@ -234,6 +258,21 @@
     <t>2117887</t>
   </si>
   <si>
+    <t>R9, R14</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>RN73C1J232RBTDF</t>
+  </si>
+  <si>
+    <t>2687973</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -252,142 +291,412 @@
     <t>:)</t>
   </si>
   <si>
-    <t>Trans</t>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Motor Servo</t>
+  </si>
+  <si>
+    <t>RAD-0.4</t>
+  </si>
+  <si>
+    <t>Servo Motor</t>
+  </si>
+  <si>
+    <t>Olimex</t>
+  </si>
+  <si>
+    <t>MS-R-1.3-9</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>1000uF</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>EEEFT1C102AP</t>
+  </si>
+  <si>
+    <t>2065974</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>RB7.6-15</t>
+  </si>
+  <si>
+    <t>TL3C106K025C0450..</t>
+  </si>
+  <si>
+    <t>2353238</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>WURTH ELECTRONIK</t>
+  </si>
+  <si>
+    <t>885342211005</t>
+  </si>
+  <si>
+    <t>2812613</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Diode 10TQ035</t>
+  </si>
+  <si>
+    <t>TO-220AC</t>
+  </si>
+  <si>
+    <t>Diode Zenner</t>
+  </si>
+  <si>
+    <t>BZD27C15P-E3-08</t>
+  </si>
+  <si>
+    <t>4417460</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>LedBlancheRetroEcl</t>
+  </si>
+  <si>
+    <t>LED-0</t>
+  </si>
+  <si>
+    <t>LED Blanche retro vumetre</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>BARBIE</t>
+  </si>
+  <si>
+    <t>DS1</t>
+  </si>
+  <si>
+    <t>20x4 LCD</t>
+  </si>
+  <si>
+    <t>Midas</t>
+  </si>
+  <si>
+    <t>MC42008A6W-FPTLW</t>
+  </si>
+  <si>
+    <t>2606880</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Fuse 1</t>
+  </si>
+  <si>
+    <t>PIN-W2/E2.8</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>Littelfuse</t>
+  </si>
+  <si>
+    <t>39515000000</t>
+  </si>
+  <si>
+    <t>1596504</t>
+  </si>
+  <si>
+    <t>MCL039PURGW</t>
+  </si>
+  <si>
+    <t>Led RG</t>
+  </si>
+  <si>
+    <t>1581194</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>61304021121</t>
+  </si>
+  <si>
+    <t>HDR2X20</t>
+  </si>
+  <si>
+    <t>Header, 20-Pin, Dual row</t>
+  </si>
+  <si>
+    <t>2356148</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>31101112</t>
+  </si>
+  <si>
+    <t>HDR1X12</t>
+  </si>
+  <si>
+    <t>Header, 12-Pin</t>
+  </si>
+  <si>
+    <t>METZ CONNECT</t>
+  </si>
+  <si>
+    <t>1909750</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>MHRJJ66NFRAS</t>
+  </si>
+  <si>
+    <t>HDR1X6</t>
+  </si>
+  <si>
+    <t>PortRJ12_debug</t>
+  </si>
+  <si>
+    <t>MH Connectors</t>
+  </si>
+  <si>
+    <t>3938372</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>FC68148S</t>
+  </si>
+  <si>
+    <t>Power connector</t>
+  </si>
+  <si>
+    <t>CLIFF</t>
+  </si>
+  <si>
+    <t>1888309</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>BCS-116-L-S-TE</t>
+  </si>
+  <si>
+    <t>Samtec</t>
+  </si>
+  <si>
+    <t>1667483</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>Support Pile</t>
+  </si>
+  <si>
+    <t>Renata</t>
+  </si>
+  <si>
+    <t>SMTU-1225-1-LF</t>
+  </si>
+  <si>
+    <t>1216353</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>VR5</t>
+  </si>
+  <si>
+    <t>Potentiometer</t>
+  </si>
+  <si>
+    <t>M63S203KB40</t>
+  </si>
+  <si>
+    <t>9609822</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>1Ko</t>
+  </si>
+  <si>
+    <t>CPF0201D1K0E1</t>
+  </si>
+  <si>
+    <t>2117780</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>Res2</t>
+  </si>
+  <si>
+    <t>RP73PF1E60R4BTDF</t>
+  </si>
+  <si>
+    <t>2838800</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>CPF0805B75RE1</t>
+  </si>
+  <si>
+    <t>1697415</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Bouton Status</t>
+  </si>
+  <si>
+    <t>SPST-2</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>RAFI</t>
+  </si>
+  <si>
+    <t>1.10.001.001/0205</t>
+  </si>
+  <si>
+    <t>9927360</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>74LVX4245MTCX</t>
+  </si>
+  <si>
+    <t>Bus Transceiver</t>
   </si>
   <si>
     <t>ON SEMICONDUCTOR</t>
   </si>
   <si>
-    <t>74LVX4245MTCX</t>
-  </si>
-  <si>
     <t>1467357</t>
   </si>
   <si>
-    <t>B?</t>
-  </si>
-  <si>
-    <t>Motor Servo</t>
-  </si>
-  <si>
-    <t>RAD-0.4</t>
-  </si>
-  <si>
-    <t>Servo Motor</t>
-  </si>
-  <si>
-    <t>Olimex</t>
-  </si>
-  <si>
-    <t>MS-R-1.3-9</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>WURTH ELECTRONIK</t>
-  </si>
-  <si>
-    <t>885342211005</t>
-  </si>
-  <si>
-    <t>2812613</t>
-  </si>
-  <si>
-    <t>RB7.6-15</t>
-  </si>
-  <si>
-    <t>Polarized Capacitor (Radial)</t>
-  </si>
-  <si>
-    <t>TL3C106K025C0450..</t>
-  </si>
-  <si>
-    <t>2353238</t>
-  </si>
-  <si>
-    <t>Diode 10TQ035</t>
-  </si>
-  <si>
-    <t>TO-220AC</t>
-  </si>
-  <si>
-    <t>Diode Zenner</t>
-  </si>
-  <si>
-    <t>VISHAY</t>
-  </si>
-  <si>
-    <t>BZD27C15P-E3-08</t>
-  </si>
-  <si>
-    <t>4417460</t>
-  </si>
-  <si>
-    <t>LedBlancheRetroEcl</t>
-  </si>
-  <si>
-    <t>LED-0</t>
-  </si>
-  <si>
-    <t>LED Blanche retro vumetre</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>BARBIE</t>
-  </si>
-  <si>
-    <t>DS?</t>
-  </si>
-  <si>
-    <t>20x4 LCD</t>
-  </si>
-  <si>
-    <t>Midas</t>
-  </si>
-  <si>
-    <t>MC42008A6W-FPTLW</t>
-  </si>
-  <si>
-    <t>2606880</t>
-  </si>
-  <si>
-    <t>F?</t>
-  </si>
-  <si>
-    <t>Fuse 1</t>
-  </si>
-  <si>
-    <t>PIN-W2/E2.8</t>
-  </si>
-  <si>
-    <t>Fuse</t>
-  </si>
-  <si>
-    <t>Littelfuse</t>
-  </si>
-  <si>
-    <t>39515000000</t>
-  </si>
-  <si>
-    <t>1596504</t>
-  </si>
-  <si>
-    <t>MCL039PURGW</t>
-  </si>
-  <si>
-    <t>Led RG</t>
-  </si>
-  <si>
-    <t>1581194</t>
-  </si>
-  <si>
-    <t>P?</t>
-  </si>
-  <si>
-    <t>Connect.LCD</t>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>PIC32MX110F016D-I/PT</t>
+  </si>
+  <si>
+    <t>MICROCHIP</t>
+  </si>
+  <si>
+    <t>2057068</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SST25VF016B-50-4C-S2AF-T</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>2810109</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>ADP2302ARDZ-5.0-R7</t>
+  </si>
+  <si>
+    <t>Convert. 5v</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>2727507</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>ADP2302ARDZ-3.3-R7</t>
+  </si>
+  <si>
+    <t>Convert.3.3</t>
+  </si>
+  <si>
+    <t>2376914</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>LM809M3-3.08/NOPB</t>
+  </si>
+  <si>
+    <t>Voltage Monitor</t>
+  </si>
+  <si>
+    <t>TEXAS INSTRUMENTS</t>
+  </si>
+  <si>
+    <t>2352609</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>NC7S04M5</t>
+  </si>
+  <si>
+    <t>Inverter</t>
+  </si>
+  <si>
+    <t>1014133</t>
+  </si>
+  <si>
+    <t>XDS1</t>
+  </si>
+  <si>
+    <t>1-826629-6</t>
   </si>
   <si>
     <t>HDR1X16</t>
@@ -399,187 +708,13 @@
     <t>AMP-TE CONNECTIVITY</t>
   </si>
   <si>
-    <t>1-826629-6</t>
-  </si>
-  <si>
     <t>1248124</t>
   </si>
   <si>
-    <t>Header 12</t>
-  </si>
-  <si>
-    <t>HDR1X12</t>
-  </si>
-  <si>
-    <t>Header, 12-Pin</t>
-  </si>
-  <si>
-    <t>METZ CONNECT</t>
-  </si>
-  <si>
-    <t>31101112</t>
-  </si>
-  <si>
-    <t>1909750</t>
-  </si>
-  <si>
-    <t>Header 20X2</t>
-  </si>
-  <si>
-    <t>HDR2X20</t>
-  </si>
-  <si>
-    <t>Header, 20-Pin, Dual row</t>
-  </si>
-  <si>
-    <t>61304021121</t>
-  </si>
-  <si>
-    <t>2356148</t>
-  </si>
-  <si>
-    <t>Pin_connect</t>
-  </si>
-  <si>
-    <t>CLIFF</t>
-  </si>
-  <si>
-    <t>FC68148S</t>
-  </si>
-  <si>
-    <t>1888309</t>
-  </si>
-  <si>
-    <t>PortRJ12_debug</t>
-  </si>
-  <si>
-    <t>HDR1X6</t>
-  </si>
-  <si>
-    <t>Header, 6-Pin</t>
-  </si>
-  <si>
-    <t>MH Connectors</t>
-  </si>
-  <si>
-    <t>MHRJJ66NFRAS</t>
-  </si>
-  <si>
-    <t>3938372</t>
-  </si>
-  <si>
-    <t>Support Pile</t>
-  </si>
-  <si>
-    <t>Renata</t>
-  </si>
-  <si>
-    <t>SMTU-1225-1-LF</t>
-  </si>
-  <si>
-    <t>1216353</t>
-  </si>
-  <si>
-    <t>1Ko</t>
-  </si>
-  <si>
-    <t>CPF0201D1K0E1</t>
-  </si>
-  <si>
-    <t>2117780</t>
-  </si>
-  <si>
-    <t>20k</t>
-  </si>
-  <si>
-    <t>AXIAL-0.6</t>
-  </si>
-  <si>
-    <t>Variable Resistor</t>
-  </si>
-  <si>
-    <t>M63S203KB40</t>
-  </si>
-  <si>
-    <t>9609822</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>TE Connectivity</t>
-  </si>
-  <si>
-    <t>RN73C1J232RBTDF</t>
-  </si>
-  <si>
-    <t>2687973</t>
-  </si>
-  <si>
-    <t>Res2</t>
-  </si>
-  <si>
-    <t>CPF0805B75RE1</t>
-  </si>
-  <si>
-    <t>1697415</t>
-  </si>
-  <si>
-    <t>RP73PF1E60R4BTDF</t>
-  </si>
-  <si>
-    <t>2838800</t>
-  </si>
-  <si>
-    <t>S?</t>
-  </si>
-  <si>
-    <t>Bouton Status</t>
-  </si>
-  <si>
-    <t>SPST-2</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>RAFI</t>
-  </si>
-  <si>
-    <t>1.10.001.001/0205</t>
-  </si>
-  <si>
-    <t>9927360</t>
-  </si>
-  <si>
-    <t>T?</t>
-  </si>
-  <si>
-    <t>Convert.3.3</t>
-  </si>
-  <si>
-    <t>Analog Devices</t>
-  </si>
-  <si>
-    <t>ADP2302ARDZ-3.3-R7</t>
-  </si>
-  <si>
-    <t>2376914</t>
-  </si>
-  <si>
-    <t>Convert.5.0</t>
-  </si>
-  <si>
-    <t>ADP2302ARDZ-5.0-R7</t>
-  </si>
-  <si>
-    <t>2727507</t>
-  </si>
-  <si>
-    <t>Y?</t>
-  </si>
-  <si>
-    <t>13.768kHz</t>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>32.768kHz</t>
   </si>
   <si>
     <t>R38</t>
@@ -595,33 +730,6 @@
   </si>
   <si>
     <t>1838935</t>
-  </si>
-  <si>
-    <t>Z?</t>
-  </si>
-  <si>
-    <t>Memoire</t>
-  </si>
-  <si>
-    <t>Microchip</t>
-  </si>
-  <si>
-    <t>SST25VF016B-50-4C-S2AF-T</t>
-  </si>
-  <si>
-    <t>2810109</t>
-  </si>
-  <si>
-    <t>PIC</t>
-  </si>
-  <si>
-    <t>MICROCHIP</t>
-  </si>
-  <si>
-    <t>PIC32MX110F016D-I/PT</t>
-  </si>
-  <si>
-    <t>2057068</t>
   </si>
 </sst>
 </file>
@@ -971,7 +1079,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1041,31 +1149,31 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1073,28 +1181,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1102,57 +1210,57 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1160,28 +1268,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1189,28 +1297,28 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1218,28 +1326,28 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1247,28 +1355,28 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1276,28 +1384,28 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1305,86 +1413,86 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1392,28 +1500,28 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1421,28 +1529,28 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1450,28 +1558,28 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1479,28 +1587,28 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1508,28 +1616,28 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1537,28 +1645,28 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1566,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1595,28 +1703,28 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1624,28 +1732,28 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1653,28 +1761,28 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1682,28 +1790,28 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1711,28 +1819,28 @@
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1740,28 +1848,28 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1769,28 +1877,28 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1798,28 +1906,28 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1827,28 +1935,28 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1856,28 +1964,28 @@
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1885,28 +1993,28 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1914,28 +2022,28 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1943,28 +2051,28 @@
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1972,28 +2080,28 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2001,28 +2109,28 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2030,28 +2138,28 @@
         <v>1</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2059,28 +2167,28 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2088,28 +2196,173 @@
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>200</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>1</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>1</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/BADGOTRON/Project Outputs for badgotron/BOM/Bill of Materials-badgotron.xlsx
+++ b/BADGOTRON/Project Outputs for badgotron/BOM/Bill of Materials-badgotron.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bocal\Desktop\cake\elec\BADGOTRON\Project Outputs for badgotron\BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19980"/>
   </bookViews>
@@ -363,10 +368,13 @@
     <t>Diode Zenner</t>
   </si>
   <si>
-    <t>BZD27C15P-E3-08</t>
-  </si>
-  <si>
-    <t>4417460</t>
+    <t>ON SEMICONDUCTOR</t>
+  </si>
+  <si>
+    <t>MM3Z15VB</t>
+  </si>
+  <si>
+    <t>2453991</t>
   </si>
   <si>
     <t>D4</t>
@@ -486,7 +494,7 @@
     <t>P4</t>
   </si>
   <si>
-    <t>FC68148S</t>
+    <t>FC681465P</t>
   </si>
   <si>
     <t>Power connector</t>
@@ -495,7 +503,7 @@
     <t>CLIFF</t>
   </si>
   <si>
-    <t>1888309</t>
+    <t>1854512</t>
   </si>
   <si>
     <t>P5</t>
@@ -604,9 +612,6 @@
   </si>
   <si>
     <t>Bus Transceiver</t>
-  </si>
-  <si>
-    <t>ON SEMICONDUCTOR</t>
   </si>
   <si>
     <t>1467357</t>
@@ -1081,7 +1086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1657,16 +1664,16 @@
         <v>113</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1674,28 +1681,28 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1703,10 +1710,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>84</v>
@@ -1715,16 +1722,16 @@
         <v>84</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1732,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1761,28 +1768,28 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1790,28 +1797,28 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>107</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1819,28 +1826,28 @@
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1848,28 +1855,28 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1877,28 +1884,28 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="H28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1906,28 +1913,28 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1935,28 +1942,28 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1964,28 +1971,28 @@
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>72</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1993,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>25</v>
@@ -2008,13 +2015,13 @@
         <v>76</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2022,10 +2029,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>25</v>
@@ -2037,13 +2044,13 @@
         <v>76</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2051,10 +2058,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>25</v>
@@ -2066,13 +2073,13 @@
         <v>76</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2080,28 +2087,28 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2109,22 +2116,22 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>15</v>
@@ -2295,7 +2302,7 @@
         <v>222</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>221</v>

--- a/BADGOTRON/Project Outputs for badgotron/BOM/Bill of Materials-badgotron.xlsx
+++ b/BADGOTRON/Project Outputs for badgotron/BOM/Bill of Materials-badgotron.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bocal\Desktop\cake\elec\BADGOTRON\Project Outputs for badgotron\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\Documents\GitHub\elec\BADGOTRON\Project Outputs for badgotron\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Bill of Materials-badgotron" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Bill of Materials-badgotron'!$A$1:$I$44</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -320,13 +323,10 @@
     <t>1000uF</t>
   </si>
   <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
-    <t>EEEFT1C102AP</t>
-  </si>
-  <si>
-    <t>2065974</t>
+    <t>MCGLR16V108M10X16</t>
+  </si>
+  <si>
+    <t>1902972</t>
   </si>
   <si>
     <t>C3</t>
@@ -566,9 +566,6 @@
     <t>R17</t>
   </si>
   <si>
-    <t>Res2</t>
-  </si>
-  <si>
     <t>RP73PF1E60R4BTDF</t>
   </si>
   <si>
@@ -735,6 +732,12 @@
   </si>
   <si>
     <t>1838935</t>
+  </si>
+  <si>
+    <t>60.4o</t>
+  </si>
+  <si>
+    <t>70o</t>
   </si>
 </sst>
 </file>
@@ -756,7 +759,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -766,6 +769,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,13 +806,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1087,7 +1102,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,321 +1142,321 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="H11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1449,57 +1464,57 @@
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1507,10 +1522,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>84</v>
@@ -1519,16 +1534,16 @@
         <v>84</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1536,57 +1551,57 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1594,28 +1609,28 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1623,28 +1638,28 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1652,28 +1667,28 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1681,28 +1696,28 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1710,28 +1725,28 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1739,28 +1754,28 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1768,318 +1783,318 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>1</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E27" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="H27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="3" t="s">
+    </row>
+    <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="H28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F29" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>1</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="G29" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="H29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="3" t="s">
+    </row>
+    <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F30" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="3" t="s">
+      <c r="G30" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>1</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="H30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="3" t="s">
+    </row>
+    <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>5</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>5</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>2</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>185</v>
+      <c r="G33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>2</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2087,28 +2102,28 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="H35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2116,28 +2131,28 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2145,28 +2160,28 @@
         <v>1</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2174,28 +2189,28 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2203,28 +2218,28 @@
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2232,28 +2247,28 @@
         <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2261,28 +2276,28 @@
         <v>1</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2290,28 +2305,28 @@
         <v>1</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G42" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2319,28 +2334,28 @@
         <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="G43" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2348,31 +2363,36 @@
         <v>1</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="H44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>236</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I44">
+    <sortState ref="A2:I44">
+      <sortCondition ref="B1:B44"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/BADGOTRON/Project Outputs for badgotron/BOM/Bill of Materials-badgotron.xlsx
+++ b/BADGOTRON/Project Outputs for badgotron/BOM/Bill of Materials-badgotron.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\Documents\GitHub\elec\BADGOTRON\Project Outputs for badgotron\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bocal\Desktop\cake\elec\BADGOTRON\Project Outputs for badgotron\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="19365"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-badgotron" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Bill of Materials-badgotron'!$A$1:$I$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Bill of Materials-badgotron'!$A$1:$I$43</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="236">
   <si>
     <t>Quantity</t>
   </si>
@@ -131,6 +131,21 @@
     <t>2447226</t>
   </si>
   <si>
+    <t>R9, R14, R19</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>RN73C1J232RBTDF</t>
+  </si>
+  <si>
+    <t>2687973</t>
+  </si>
+  <si>
     <t>C1, C2</t>
   </si>
   <si>
@@ -236,105 +251,78 @@
     <t>2760371</t>
   </si>
   <si>
-    <t>Q3, Q4</t>
-  </si>
-  <si>
-    <t>SI2319DS-T1-E3</t>
-  </si>
-  <si>
-    <t>P-Channel MOSFET</t>
+    <t>R8, R10</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>TE CONNECTIVITY</t>
+  </si>
+  <si>
+    <t>CPF0201D10KC1</t>
+  </si>
+  <si>
+    <t>2117887</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Lecteur_Badge_LXM</t>
+  </si>
+  <si>
+    <t>Stid-Security</t>
+  </si>
+  <si>
+    <t>LXM_WIEGAND44b</t>
+  </si>
+  <si>
+    <t>Gregoire</t>
+  </si>
+  <si>
+    <t>:)</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Motor Servo</t>
+  </si>
+  <si>
+    <t>RAD-0.4</t>
+  </si>
+  <si>
+    <t>Servo Motor</t>
+  </si>
+  <si>
+    <t>Olimex</t>
+  </si>
+  <si>
+    <t>MS-R-1.3-9</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>1000uF</t>
+  </si>
+  <si>
+    <t>MCGLR16V108M10X16</t>
+  </si>
+  <si>
+    <t>1902972</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>RB7.6-15</t>
   </si>
   <si>
     <t>VISHAY</t>
   </si>
   <si>
-    <t>1838990</t>
-  </si>
-  <si>
-    <t>R8, R10</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>TE CONNECTIVITY</t>
-  </si>
-  <si>
-    <t>CPF0201D10KC1</t>
-  </si>
-  <si>
-    <t>2117887</t>
-  </si>
-  <si>
-    <t>R9, R14</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>TE Connectivity</t>
-  </si>
-  <si>
-    <t>RN73C1J232RBTDF</t>
-  </si>
-  <si>
-    <t>2687973</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Lecteur_Badge_LXM</t>
-  </si>
-  <si>
-    <t>Stid-Security</t>
-  </si>
-  <si>
-    <t>LXM_WIEGAND44b</t>
-  </si>
-  <si>
-    <t>Gregoire</t>
-  </si>
-  <si>
-    <t>:)</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>Motor Servo</t>
-  </si>
-  <si>
-    <t>RAD-0.4</t>
-  </si>
-  <si>
-    <t>Servo Motor</t>
-  </si>
-  <si>
-    <t>Olimex</t>
-  </si>
-  <si>
-    <t>MS-R-1.3-9</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>1000uF</t>
-  </si>
-  <si>
-    <t>MCGLR16V108M10X16</t>
-  </si>
-  <si>
-    <t>1902972</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>RB7.6-15</t>
-  </si>
-  <si>
     <t>TL3C106K025C0450..</t>
   </si>
   <si>
@@ -566,6 +554,9 @@
     <t>R17</t>
   </si>
   <si>
+    <t>60.4</t>
+  </si>
+  <si>
     <t>RP73PF1E60R4BTDF</t>
   </si>
   <si>
@@ -575,6 +566,9 @@
     <t>R18</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
     <t>CPF0805B75RE1</t>
   </si>
   <si>
@@ -686,13 +680,7 @@
     <t>U7</t>
   </si>
   <si>
-    <t>NC7S04M5</t>
-  </si>
-  <si>
-    <t>Inverter</t>
-  </si>
-  <si>
-    <t>1014133</t>
+    <t>MCP79510</t>
   </si>
   <si>
     <t>XDS1</t>
@@ -734,17 +722,26 @@
     <t>1838935</t>
   </si>
   <si>
-    <t>60.4o</t>
-  </si>
-  <si>
-    <t>70o</t>
+    <t>ECRAN</t>
+  </si>
+  <si>
+    <t>RTC</t>
+  </si>
+  <si>
+    <t>2361124</t>
+  </si>
+  <si>
+    <t>MCP79510-I/MS</t>
+  </si>
+  <si>
+    <t>(Déjà dans les cahiers)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,8 +755,22 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,18 +779,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -802,28 +819,206 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1099,335 +1294,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1"/>
+    <col min="3" max="8" width="12.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="55.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>22</v>
+      <c r="G11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1435,57 +1634,57 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1493,28 +1692,28 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1522,28 +1721,28 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1551,848 +1750,844 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>67</v>
+        <v>212</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>71</v>
+        <v>232</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>1</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="B27" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>0</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>0</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>0</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>0</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>0</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>0</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="D37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="5" t="s">
+      <c r="H37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>1</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>0</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C38" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D38" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E38" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G38" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="5" t="s">
+      <c r="H38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>1</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>0</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C39" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="5" t="s">
+      <c r="G39" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>1</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="H39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>0</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>0</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>5</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="G42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>0</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>5</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>2</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>2</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>1</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>1</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>1</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>1</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>1</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>1</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>1</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>1</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>1</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>234</v>
-      </c>
+      <c r="F43" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I44">
-    <sortState ref="A2:I44">
-      <sortCondition ref="B1:B44"/>
+  <autoFilter ref="A1:I43">
+    <sortState ref="A2:I43">
+      <sortCondition descending="1" ref="A1:A43"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="J29:J43"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:I43">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$A2=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
